--- a/Template_Perbaikan.xlsx
+++ b/Template_Perbaikan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\GOS_FxApps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB09E0B-6919-448A-BBF2-68B83B3766EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63BA8572-6364-4BAD-9725-8B2DCC8B56A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{C5FCF093-64A8-4ED7-8265-FAD67D0393ED}"/>
   </bookViews>
@@ -134,7 +134,7 @@
     <t>BA-1</t>
   </si>
   <si>
-    <t>TANGGAL PENERIMAAN2</t>
+    <t>TANGGAL PERBAIKAN</t>
   </si>
 </sst>
 </file>
@@ -519,7 +519,7 @@
   <autoFilter ref="A4:AE5" xr:uid="{56BE3970-019F-48BF-84B6-A47D6C6B6B4C}"/>
   <tableColumns count="31">
     <tableColumn id="1" xr3:uid="{A674D815-6F85-4FB2-958E-14C079982772}" name="NO" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{AB27265A-42CF-4A3B-9B63-628486A3B134}" name="TANGGAL PENERIMAAN" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{AB27265A-42CF-4A3B-9B63-628486A3B134}" name="TANGGAL PERBAIKAN" dataDxfId="29"/>
     <tableColumn id="3" xr3:uid="{6A85F532-49C6-4CE3-852F-E49B6F073DCE}" name="SHIFT" dataDxfId="28"/>
     <tableColumn id="4" xr3:uid="{368E42BD-0650-4EF5-B42A-75C596B17C3E}" name="NOMOR ROD" dataDxfId="27"/>
     <tableColumn id="5" xr3:uid="{07E943AF-4F60-4650-8334-D7485C44AD21}" name="JENIS" dataDxfId="26"/>
@@ -536,19 +536,19 @@
     <tableColumn id="16" xr3:uid="{D6BAD5B3-9F74-4EA3-B514-414B53B0DEE0}" name="D" dataDxfId="15"/>
     <tableColumn id="17" xr3:uid="{0ECCCBCF-8C8A-4517-9015-5196CA56EC40}" name="B" dataDxfId="14"/>
     <tableColumn id="18" xr3:uid="{7CFA677E-7857-408C-8C7C-F79EF47BEA65}" name="BAC" dataDxfId="13"/>
-    <tableColumn id="26" xr3:uid="{2BB99D62-66E7-4925-A791-A829A75FA9EE}" name="NBA" dataDxfId="5"/>
-    <tableColumn id="25" xr3:uid="{3D1FDC76-EA92-4332-94DE-AECA4AA2BE8F}" name="BA" dataDxfId="6"/>
-    <tableColumn id="24" xr3:uid="{C8DB2E7A-3436-4EF9-8408-6F99AB818419}" name="BA-1" dataDxfId="7"/>
-    <tableColumn id="23" xr3:uid="{B4107C8C-0078-431A-988A-92349C2552FA}" name="R" dataDxfId="8"/>
-    <tableColumn id="29" xr3:uid="{7B2B4E6F-368F-4E51-993B-AFBBC1540603}" name="M" dataDxfId="2"/>
-    <tableColumn id="28" xr3:uid="{5213862F-66C6-4C11-80E4-8BB68BAF90A5}" name="CR" dataDxfId="3"/>
-    <tableColumn id="27" xr3:uid="{57044E21-6C18-43B0-A5E1-0FC8339E10EE}" name="C" dataDxfId="4"/>
-    <tableColumn id="31" xr3:uid="{489754CA-EE2F-4628-A7B8-DA2BAC62E931}" name="RL" dataDxfId="0"/>
-    <tableColumn id="30" xr3:uid="{241BA996-47C1-4650-A8D6-E3235080D5C4}" name="JUMLAH" dataDxfId="1"/>
-    <tableColumn id="19" xr3:uid="{B747BA70-14B2-442D-ABA9-08E3D8EFD76B}" name="TANGGAL PENERIMAAN2" dataDxfId="12"/>
-    <tableColumn id="20" xr3:uid="{E196F7ED-AC0C-4B04-A1AD-F823A7F784EE}" name="DIUBAH" dataDxfId="11"/>
-    <tableColumn id="21" xr3:uid="{E4D2BC20-BACD-4B50-A240-6C81B516AA76}" name="REMAKS" dataDxfId="10"/>
-    <tableColumn id="22" xr3:uid="{B31C1564-5834-4106-99AE-E9C8731A27D5}" name="CATATAN" dataDxfId="9"/>
+    <tableColumn id="26" xr3:uid="{2BB99D62-66E7-4925-A791-A829A75FA9EE}" name="NBA" dataDxfId="12"/>
+    <tableColumn id="25" xr3:uid="{3D1FDC76-EA92-4332-94DE-AECA4AA2BE8F}" name="BA" dataDxfId="11"/>
+    <tableColumn id="24" xr3:uid="{C8DB2E7A-3436-4EF9-8408-6F99AB818419}" name="BA-1" dataDxfId="10"/>
+    <tableColumn id="23" xr3:uid="{B4107C8C-0078-431A-988A-92349C2552FA}" name="R" dataDxfId="9"/>
+    <tableColumn id="29" xr3:uid="{7B2B4E6F-368F-4E51-993B-AFBBC1540603}" name="M" dataDxfId="8"/>
+    <tableColumn id="28" xr3:uid="{5213862F-66C6-4C11-80E4-8BB68BAF90A5}" name="CR" dataDxfId="7"/>
+    <tableColumn id="27" xr3:uid="{57044E21-6C18-43B0-A5E1-0FC8339E10EE}" name="C" dataDxfId="6"/>
+    <tableColumn id="31" xr3:uid="{489754CA-EE2F-4628-A7B8-DA2BAC62E931}" name="RL" dataDxfId="5"/>
+    <tableColumn id="30" xr3:uid="{241BA996-47C1-4650-A8D6-E3235080D5C4}" name="JUMLAH" dataDxfId="4"/>
+    <tableColumn id="19" xr3:uid="{B747BA70-14B2-442D-ABA9-08E3D8EFD76B}" name="TANGGAL PENERIMAAN" dataDxfId="3"/>
+    <tableColumn id="20" xr3:uid="{E196F7ED-AC0C-4B04-A1AD-F823A7F784EE}" name="DIUBAH" dataDxfId="2"/>
+    <tableColumn id="21" xr3:uid="{E4D2BC20-BACD-4B50-A240-6C81B516AA76}" name="REMAKS" dataDxfId="1"/>
+    <tableColumn id="22" xr3:uid="{B31C1564-5834-4106-99AE-E9C8731A27D5}" name="CATATAN" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -874,7 +874,7 @@
   <dimension ref="A1:AE5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -971,7 +971,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
@@ -1049,7 +1049,7 @@
         <v>15</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="AC4" s="1" t="s">
         <v>16</v>
